--- a/data_raw/EHI_item_bank.xlsx
+++ b/data_raw/EHI_item_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\EHI\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C03E5-118A-437D-AE5D-DD18BB8EE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F0229-8680-4CEC-BACE-E3696FAF6E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>item_number</t>
   </si>
@@ -79,9 +79,15 @@
     <t>angry3</t>
   </si>
   <si>
+    <t>t2_angry_s2_u01.wav</t>
+  </si>
+  <si>
     <t>angry4</t>
   </si>
   <si>
+    <t>t2_angry_s2_u03.wav</t>
+  </si>
+  <si>
     <t>angry5</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
     <t>sad9</t>
   </si>
   <si>
+    <t>t5_sad_s1_u05.wav</t>
+  </si>
+  <si>
     <t>sad10</t>
   </si>
   <si>
@@ -349,6 +358,9 @@
     <t>t6_sad_s2_u06.wav</t>
   </si>
   <si>
+    <t>t2_neutral_s1_u01.wav</t>
+  </si>
+  <si>
     <t>t1_sad_s1_u10.wav</t>
   </si>
   <si>
@@ -358,22 +370,16 @@
     <t>t4_sad_s2_u03.wav</t>
   </si>
   <si>
-    <t>t2_angry_s2_u01.wav</t>
-  </si>
-  <si>
-    <t>t2_angry_s2_u03.wav</t>
-  </si>
-  <si>
-    <t>Practice 1 sad17</t>
-  </si>
-  <si>
-    <t>Practice 2 angry17</t>
-  </si>
-  <si>
-    <t>Practice 3 sad18</t>
-  </si>
-  <si>
-    <t>t5_sad_s1_u00.wav</t>
+    <t>volume_check</t>
+  </si>
+  <si>
+    <t>practice1</t>
+  </si>
+  <si>
+    <t>practice2</t>
+  </si>
+  <si>
+    <t>practice3</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1626,7 +1633,7 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1640,7 +1647,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1654,11 +1661,11 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1666,13 +1673,13 @@
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1680,13 +1687,13 @@
     </row>
     <row r="6" spans="1:4" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -1694,13 +1701,13 @@
     </row>
     <row r="7" spans="1:4" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -1708,13 +1715,13 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1722,13 +1729,13 @@
     </row>
     <row r="9" spans="1:4" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1736,13 +1743,13 @@
     </row>
     <row r="10" spans="1:4" ht="13.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1750,13 +1757,13 @@
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -1764,13 +1771,13 @@
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -1778,13 +1785,13 @@
     </row>
     <row r="13" spans="1:4" ht="13.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1792,13 +1799,13 @@
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -1806,13 +1813,13 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -1820,13 +1827,13 @@
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1834,13 +1841,13 @@
     </row>
     <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1848,493 +1855,497 @@
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="3">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3">
+        <v>70</v>
+      </c>
+      <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3">
+        <v>73</v>
+      </c>
+      <c r="B35" s="4">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3">
+        <v>77</v>
+      </c>
+      <c r="B37" s="4">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3">
+        <v>79</v>
+      </c>
+      <c r="B38" s="4">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="3">
+        <v>81</v>
+      </c>
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="3">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="3">
+        <v>85</v>
+      </c>
+      <c r="B41" s="4">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="3">
+        <v>87</v>
+      </c>
+      <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="3">
+        <v>89</v>
+      </c>
+      <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="3">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="3">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="3">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="3">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="3">
+        <v>101</v>
+      </c>
+      <c r="B49" s="4">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="3">
-        <v>3</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="3">
+        <v>109</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
